--- a/excel/60m/ph_pl_data_60m_backup.xlsx
+++ b/excel/60m/ph_pl_data_60m_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2335"/>
+  <dimension ref="A1:G2341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58824,6 +58824,156 @@
         <v>528.1500244140625</v>
       </c>
     </row>
+    <row r="2336">
+      <c r="A2336" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2336" s="2" t="n">
+        <v>45446.38541666666</v>
+      </c>
+      <c r="C2336" t="n">
+        <v>76652.1484375</v>
+      </c>
+      <c r="D2336" t="n">
+        <v>75679.65625</v>
+      </c>
+      <c r="E2336" t="n">
+        <v>76101.7734375</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2336" t="n">
+        <v>76652.1484375</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2337" s="2" t="n">
+        <v>45453.38541666666</v>
+      </c>
+      <c r="C2337" t="n">
+        <v>77073.4609375</v>
+      </c>
+      <c r="D2337" t="n">
+        <v>76443.2265625</v>
+      </c>
+      <c r="E2337" t="n">
+        <v>76696.578125</v>
+      </c>
+      <c r="F2337" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2337" t="n">
+        <v>77073.4609375</v>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2338" s="2" t="n">
+        <v>45456.38541666666</v>
+      </c>
+      <c r="C2338" t="n">
+        <v>77116.0234375</v>
+      </c>
+      <c r="D2338" t="n">
+        <v>76777.9921875</v>
+      </c>
+      <c r="E2338" t="n">
+        <v>76901.4765625</v>
+      </c>
+      <c r="F2338" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2338" t="n">
+        <v>77116.0234375</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2339" s="2" t="n">
+        <v>45442.59375</v>
+      </c>
+      <c r="C2339" t="n">
+        <v>74015.15625</v>
+      </c>
+      <c r="D2339" t="n">
+        <v>73668.8984375</v>
+      </c>
+      <c r="E2339" t="n">
+        <v>73835.59375</v>
+      </c>
+      <c r="F2339" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2339" t="n">
+        <v>73668.8984375</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2340" s="2" t="n">
+        <v>45447.51041666666</v>
+      </c>
+      <c r="C2340" t="n">
+        <v>72521.46875</v>
+      </c>
+      <c r="D2340" t="n">
+        <v>70234.4296875</v>
+      </c>
+      <c r="E2340" t="n">
+        <v>72287.203125</v>
+      </c>
+      <c r="F2340" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2340" t="n">
+        <v>70234.4296875</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2341" s="2" t="n">
+        <v>45457.38541666666</v>
+      </c>
+      <c r="C2341" t="n">
+        <v>76985.7890625</v>
+      </c>
+      <c r="D2341" t="n">
+        <v>76550.0234375</v>
+      </c>
+      <c r="E2341" t="n">
+        <v>76897.1796875</v>
+      </c>
+      <c r="F2341" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2341" t="n">
+        <v>76550.0234375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/60m/ph_pl_data_60m_backup.xlsx
+++ b/excel/60m/ph_pl_data_60m_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2341"/>
+  <dimension ref="A1:G2347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58974,6 +58974,156 @@
         <v>76550.0234375</v>
       </c>
     </row>
+    <row r="2342">
+      <c r="A2342" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2342" s="2" t="n">
+        <v>45439.59375</v>
+      </c>
+      <c r="C2342" t="n">
+        <v>14883.599609375</v>
+      </c>
+      <c r="D2342" t="n">
+        <v>14769.150390625</v>
+      </c>
+      <c r="E2342" t="n">
+        <v>14788.849609375</v>
+      </c>
+      <c r="F2342" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2342" t="n">
+        <v>14883.599609375</v>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2343" s="2" t="n">
+        <v>45446.63541666666</v>
+      </c>
+      <c r="C2343" t="n">
+        <v>14957.0498046875</v>
+      </c>
+      <c r="D2343" t="n">
+        <v>14906.150390625</v>
+      </c>
+      <c r="E2343" t="n">
+        <v>14955</v>
+      </c>
+      <c r="F2343" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2343" t="n">
+        <v>14957.0498046875</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2344" s="2" t="n">
+        <v>45462.38541666666</v>
+      </c>
+      <c r="C2344" t="n">
+        <v>15620.2001953125</v>
+      </c>
+      <c r="D2344" t="n">
+        <v>15433.75</v>
+      </c>
+      <c r="E2344" t="n">
+        <v>15460.4501953125</v>
+      </c>
+      <c r="F2344" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2344" t="n">
+        <v>15620.2001953125</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2345" s="2" t="n">
+        <v>45447.51041666666</v>
+      </c>
+      <c r="C2345" t="n">
+        <v>13867.349609375</v>
+      </c>
+      <c r="D2345" t="n">
+        <v>13285.25</v>
+      </c>
+      <c r="E2345" t="n">
+        <v>13839.25</v>
+      </c>
+      <c r="F2345" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2345" t="n">
+        <v>13285.25</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2346" s="2" t="n">
+        <v>45453.59375</v>
+      </c>
+      <c r="C2346" t="n">
+        <v>14929.5</v>
+      </c>
+      <c r="D2346" t="n">
+        <v>14818</v>
+      </c>
+      <c r="E2346" t="n">
+        <v>14924.0498046875</v>
+      </c>
+      <c r="F2346" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2346" t="n">
+        <v>14818</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2347" s="2" t="n">
+        <v>45462.42708333334</v>
+      </c>
+      <c r="C2347" t="n">
+        <v>15466.0498046875</v>
+      </c>
+      <c r="D2347" t="n">
+        <v>15352.150390625</v>
+      </c>
+      <c r="E2347" t="n">
+        <v>15459.599609375</v>
+      </c>
+      <c r="F2347" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2347" t="n">
+        <v>15352.150390625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
